--- a/output/main/TabuSearch_Stats.xlsx
+++ b/output/main/TabuSearch_Stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Schedule</t>
   </si>
@@ -35,64 +35,61 @@
     <t>Division U7 (tier: 1)</t>
   </si>
   <si>
-    <t>26 sec</t>
+    <t>24 sec</t>
   </si>
   <si>
     <t>Division U7 (tier: 2)</t>
   </si>
   <si>
-    <t>4 sec</t>
+    <t>6 sec</t>
   </si>
   <si>
     <t>Division U7 (tier: 3)</t>
   </si>
   <si>
+    <t>Division U8 (tier: 0)</t>
+  </si>
+  <si>
+    <t>20 sec</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 1)</t>
+  </si>
+  <si>
+    <t>15 sec</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 2)</t>
+  </si>
+  <si>
+    <t>17 sec</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 3)</t>
+  </si>
+  <si>
+    <t>21 sec</t>
+  </si>
+  <si>
+    <t>Division U9 (tier: 0)</t>
+  </si>
+  <si>
     <t>5 sec</t>
   </si>
   <si>
-    <t>Division U8 (tier: 0)</t>
-  </si>
-  <si>
-    <t>15 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 1)</t>
-  </si>
-  <si>
-    <t>25 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 2)</t>
-  </si>
-  <si>
-    <t>23 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 3)</t>
-  </si>
-  <si>
-    <t>28 sec</t>
-  </si>
-  <si>
-    <t>Division U9 (tier: 0)</t>
-  </si>
-  <si>
     <t>Division U9 (tier: 1)</t>
   </si>
   <si>
-    <t>14 sec</t>
-  </si>
-  <si>
     <t>Division U9 (tier: 2)</t>
   </si>
   <si>
-    <t>6 sec</t>
+    <t>8 sec</t>
   </si>
   <si>
     <t>Division U9 (tier: 3)</t>
   </si>
   <si>
-    <t>35 sec</t>
+    <t>18 sec</t>
   </si>
   <si>
     <t>Sums:</t>
@@ -107,7 +104,7 @@
     <t>Entire League</t>
   </si>
   <si>
-    <t>3 min, 22 sec</t>
+    <t>2 min, 59 sec</t>
   </si>
 </sst>
 </file>
@@ -282,13 +279,13 @@
         <v>146.0</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>10908.0</v>
+        <v>11049.0</v>
       </c>
       <c r="D2" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>10908.0</v>
+        <v>11049.0</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>7</v>
@@ -302,13 +299,13 @@
         <v>144.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>754.0</v>
+        <v>838.0</v>
       </c>
       <c r="D3" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>754.0</v>
+        <v>838.0</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>9</v>
@@ -322,116 +319,116 @@
         <v>157.55</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>1069.0</v>
+        <v>1036.0</v>
       </c>
       <c r="D4" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>1069.0</v>
+        <v>1036.0</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n" s="1">
         <v>134.45</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>5720.0</v>
+        <v>5740.0</v>
       </c>
       <c r="D5" t="n" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" t="n" s="1">
-        <v>5716.0</v>
+        <v>5736.0</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n" s="1">
         <v>255.27</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>12094.0</v>
+        <v>12046.0</v>
       </c>
       <c r="D6" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>12094.0</v>
+        <v>12046.0</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n" s="1">
         <v>193.09</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>14779.0</v>
+        <v>15148.0</v>
       </c>
       <c r="D7" t="n" s="1">
         <v>2.0</v>
       </c>
       <c r="E7" t="n" s="1">
-        <v>14777.0</v>
+        <v>15146.0</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n" s="1">
         <v>102.36</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>11315.0</v>
+        <v>11196.0</v>
       </c>
       <c r="D8" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E8" t="n" s="1">
-        <v>11315.0</v>
+        <v>11196.0</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n" s="1">
         <v>119.82</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>902.0</v>
+        <v>884.0</v>
       </c>
       <c r="D9" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E9" t="n" s="1">
-        <v>902.0</v>
+        <v>884.0</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -442,61 +439,61 @@
         <v>134.82</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>4873.0</v>
+        <v>5055.0</v>
       </c>
       <c r="D10" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E10" t="n" s="1">
-        <v>4873.0</v>
+        <v>5055.0</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n" s="1">
         <v>158.82</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>1278.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D11" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E11" t="n" s="1">
-        <v>1278.0</v>
+        <v>1344.0</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n" s="1">
         <v>374.73</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>12577.0</v>
+        <v>12495.0</v>
       </c>
       <c r="D12" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E12" t="n" s="1">
-        <v>12577.0</v>
+        <v>12495.0</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(B2:B12)</f>
@@ -533,16 +530,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="n" s="1">
-        <v>106.36</v>
+        <v>92.55</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>1469.0</v>
+        <v>1471.0</v>
       </c>
       <c r="D16" t="n" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>1461.0</v>
+        <v>1462.0</v>
       </c>
     </row>
     <row r="17">
@@ -550,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="n" s="1">
-        <v>118.18</v>
+        <v>120.18</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>969.0</v>
+        <v>947.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>955.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="18">
@@ -567,101 +564,101 @@
         <v>10</v>
       </c>
       <c r="B18" t="n" s="1">
-        <v>109.91</v>
+        <v>101.91</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>3175.0</v>
+        <v>3149.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>3163.0</v>
+        <v>3139.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n" s="1">
         <v>88.82</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>943.0</v>
+        <v>900.0</v>
       </c>
       <c r="D19" t="n" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E19" t="n" s="1">
-        <v>935.0</v>
+        <v>893.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n" s="1">
-        <v>170.64</v>
+        <v>157.0</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>517.0</v>
+        <v>456.0</v>
       </c>
       <c r="D20" t="n" s="1">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="E20" t="n" s="1">
-        <v>499.0</v>
+        <v>434.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n" s="1">
-        <v>79.55</v>
+        <v>93.18</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>1336.0</v>
+        <v>1298.0</v>
       </c>
       <c r="D21" t="n" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E21" t="n" s="1">
-        <v>1314.0</v>
+        <v>1277.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="n" s="1">
         <v>79.55</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>1408.0</v>
+        <v>1242.0</v>
       </c>
       <c r="D22" t="n" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" t="n" s="1">
-        <v>1391.0</v>
+        <v>1226.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="n" s="1">
-        <v>105.82</v>
+        <v>107.82</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>827.0</v>
+        <v>825.0</v>
       </c>
       <c r="D23" t="n" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n" s="1">
-        <v>825.0</v>
+        <v>822.0</v>
       </c>
     </row>
     <row r="24">
@@ -669,55 +666,55 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="1">
-        <v>106.82</v>
+        <v>100.0</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>1229.0</v>
+        <v>1224.0</v>
       </c>
       <c r="D24" t="n" s="1">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="E24" t="n" s="1">
-        <v>1211.0</v>
+        <v>1202.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n" s="1">
-        <v>118.0</v>
+        <v>113.36</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>1279.0</v>
+        <v>1362.0</v>
       </c>
       <c r="D25" t="n" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="E25" t="n" s="1">
-        <v>1271.0</v>
+        <v>1349.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n" s="1">
-        <v>223.91</v>
+        <v>209.18</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>3829.0</v>
+        <v>3839.0</v>
       </c>
       <c r="D26" t="n" s="1">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="E26" t="n" s="1">
-        <v>3795.0</v>
+        <v>3798.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9">
         <f>SUM(B16:B26)</f>
@@ -752,30 +749,30 @@
         <v>5</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n" s="1">
+        <v>359.17</v>
+      </c>
+      <c r="C30" t="n" s="1">
+        <v>16713.0</v>
+      </c>
+      <c r="D30" t="n" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="E30" t="n" s="1">
+        <v>16538.0</v>
+      </c>
+      <c r="F30" t="s" s="1">
         <v>30</v>
-      </c>
-      <c r="B30" t="n" s="1">
-        <v>349.31</v>
-      </c>
-      <c r="C30" t="n" s="1">
-        <v>16981.0</v>
-      </c>
-      <c r="D30" t="n" s="1">
-        <v>161.0</v>
-      </c>
-      <c r="E30" t="n" s="1">
-        <v>16820.0</v>
-      </c>
-      <c r="F30" t="s" s="1">
-        <v>31</v>
       </c>
       <c r="G30" t="n" s="1">
         <v>0.0</v>

--- a/output/main/TabuSearch_Stats.xlsx
+++ b/output/main/TabuSearch_Stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Schedule</t>
   </si>
@@ -35,63 +35,54 @@
     <t>Division U7 (tier: 1)</t>
   </si>
   <si>
-    <t>24 sec</t>
+    <t>15 sec</t>
   </si>
   <si>
     <t>Division U7 (tier: 2)</t>
   </si>
   <si>
+    <t>4 sec</t>
+  </si>
+  <si>
+    <t>Division U7 (tier: 3)</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 0)</t>
+  </si>
+  <si>
+    <t>12 sec</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 1)</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 2)</t>
+  </si>
+  <si>
+    <t>14 sec</t>
+  </si>
+  <si>
+    <t>Division U8 (tier: 3)</t>
+  </si>
+  <si>
+    <t>Division U9 (tier: 0)</t>
+  </si>
+  <si>
+    <t>5 sec</t>
+  </si>
+  <si>
+    <t>Division U9 (tier: 1)</t>
+  </si>
+  <si>
+    <t>Division U9 (tier: 2)</t>
+  </si>
+  <si>
     <t>6 sec</t>
   </si>
   <si>
-    <t>Division U7 (tier: 3)</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 0)</t>
-  </si>
-  <si>
-    <t>20 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 1)</t>
-  </si>
-  <si>
-    <t>15 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 2)</t>
-  </si>
-  <si>
-    <t>17 sec</t>
-  </si>
-  <si>
-    <t>Division U8 (tier: 3)</t>
-  </si>
-  <si>
-    <t>21 sec</t>
-  </si>
-  <si>
-    <t>Division U9 (tier: 0)</t>
-  </si>
-  <si>
-    <t>5 sec</t>
-  </si>
-  <si>
-    <t>Division U9 (tier: 1)</t>
-  </si>
-  <si>
-    <t>Division U9 (tier: 2)</t>
-  </si>
-  <si>
-    <t>8 sec</t>
-  </si>
-  <si>
     <t>Division U9 (tier: 3)</t>
   </si>
   <si>
-    <t>18 sec</t>
-  </si>
-  <si>
     <t>Sums:</t>
   </si>
   <si>
@@ -104,7 +95,7 @@
     <t>Entire League</t>
   </si>
   <si>
-    <t>2 min, 59 sec</t>
+    <t>2 min, 13 sec</t>
   </si>
 </sst>
 </file>
@@ -276,16 +267,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="1">
-        <v>146.0</v>
+        <v>205.86</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>11049.0</v>
+        <v>10517.0</v>
       </c>
       <c r="D2" t="n" s="1">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>11049.0</v>
+        <v>10469.0</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>7</v>
@@ -296,16 +287,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="n" s="1">
-        <v>144.0</v>
+        <v>221.82</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>838.0</v>
+        <v>792.0</v>
       </c>
       <c r="D3" t="n" s="1">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>838.0</v>
+        <v>762.0</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>9</v>
@@ -316,16 +307,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>157.55</v>
+        <v>212.33999999999997</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>1036.0</v>
+        <v>1002.0</v>
       </c>
       <c r="D4" t="n" s="1">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>1036.0</v>
+        <v>963.0</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>9</v>
@@ -336,16 +327,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="1">
-        <v>134.45</v>
+        <v>334.45</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>5740.0</v>
+        <v>5735.0</v>
       </c>
       <c r="D5" t="n" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" t="n" s="1">
-        <v>5736.0</v>
+        <v>5731.0</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>12</v>
@@ -356,144 +347,144 @@
         <v>13</v>
       </c>
       <c r="B6" t="n" s="1">
-        <v>255.27</v>
+        <v>386.99</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>12046.0</v>
+        <v>11965.0</v>
       </c>
       <c r="D6" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>12046.0</v>
+        <v>11965.0</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>291.37</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>14962.0</v>
+      </c>
+      <c r="D7" t="n" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E7" t="n" s="1">
+        <v>14932.0</v>
+      </c>
+      <c r="F7" t="s" s="1">
         <v>15</v>
-      </c>
-      <c r="B7" t="n" s="1">
-        <v>193.09</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>15148.0</v>
-      </c>
-      <c r="D7" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E7" t="n" s="1">
-        <v>15146.0</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n" s="1">
-        <v>102.36</v>
+        <v>175.26999999999998</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>11196.0</v>
+        <v>10993.0</v>
       </c>
       <c r="D8" t="n" s="1">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E8" t="n" s="1">
-        <v>11196.0</v>
+        <v>10960.0</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>119.82</v>
+        <v>181.43</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>884.0</v>
+        <v>966.0</v>
       </c>
       <c r="D9" t="n" s="1">
         <v>0.0</v>
       </c>
       <c r="E9" t="n" s="1">
-        <v>884.0</v>
+        <v>966.0</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n" s="1">
-        <v>134.82</v>
+        <v>203.73000000000002</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>5055.0</v>
+        <v>4599.0</v>
       </c>
       <c r="D10" t="n" s="1">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n" s="1">
-        <v>5055.0</v>
+        <v>4555.0</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="1">
-        <v>158.82</v>
+        <v>230.19</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>1344.0</v>
+        <v>1332.0</v>
       </c>
       <c r="D11" t="n" s="1">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n" s="1">
-        <v>1344.0</v>
+        <v>1300.0</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="1">
-        <v>374.73</v>
+        <v>435.58</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>12495.0</v>
+        <v>12388.0</v>
       </c>
       <c r="D12" t="n" s="1">
-        <v>0.0</v>
+        <v>201.0</v>
       </c>
       <c r="E12" t="n" s="1">
-        <v>12495.0</v>
+        <v>12187.0</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(B2:B12)</f>
@@ -530,16 +521,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="n" s="1">
-        <v>92.55</v>
+        <v>134.66</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>1471.0</v>
+        <v>1554.0</v>
       </c>
       <c r="D16" t="n" s="1">
-        <v>9.0</v>
+        <v>68.0</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>1462.0</v>
+        <v>1486.0</v>
       </c>
     </row>
     <row r="17">
@@ -547,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="n" s="1">
-        <v>120.18</v>
+        <v>152.03</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>947.0</v>
+        <v>1079.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>11.0</v>
+        <v>86.0</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>936.0</v>
+        <v>993.0</v>
       </c>
     </row>
     <row r="18">
@@ -564,16 +555,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n" s="1">
-        <v>101.91</v>
+        <v>176.05</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>3149.0</v>
+        <v>3145.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>10.0</v>
+        <v>141.0</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>3139.0</v>
+        <v>3004.0</v>
       </c>
     </row>
     <row r="19">
@@ -581,16 +572,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="n" s="1">
-        <v>88.82</v>
+        <v>177.37</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>900.0</v>
+        <v>957.0</v>
       </c>
       <c r="D19" t="n" s="1">
-        <v>7.0</v>
+        <v>40.0</v>
       </c>
       <c r="E19" t="n" s="1">
-        <v>893.0</v>
+        <v>917.0</v>
       </c>
     </row>
     <row r="20">
@@ -598,123 +589,123 @@
         <v>13</v>
       </c>
       <c r="B20" t="n" s="1">
-        <v>157.0</v>
+        <v>225.81</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>456.0</v>
+        <v>537.0</v>
       </c>
       <c r="D20" t="n" s="1">
-        <v>22.0</v>
+        <v>46.0</v>
       </c>
       <c r="E20" t="n" s="1">
-        <v>434.0</v>
+        <v>491.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n" s="1">
-        <v>93.18</v>
+        <v>167.01999999999998</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>1298.0</v>
+        <v>1184.0</v>
       </c>
       <c r="D21" t="n" s="1">
-        <v>21.0</v>
+        <v>82.0</v>
       </c>
       <c r="E21" t="n" s="1">
-        <v>1277.0</v>
+        <v>1102.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="n" s="1">
-        <v>79.55</v>
+        <v>149.96</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>1242.0</v>
+        <v>1342.0</v>
       </c>
       <c r="D22" t="n" s="1">
-        <v>16.0</v>
+        <v>77.0</v>
       </c>
       <c r="E22" t="n" s="1">
-        <v>1226.0</v>
+        <v>1265.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="n" s="1">
-        <v>107.82</v>
+        <v>131.89999999999998</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>825.0</v>
+        <v>885.0</v>
       </c>
       <c r="D23" t="n" s="1">
-        <v>3.0</v>
+        <v>44.0</v>
       </c>
       <c r="E23" t="n" s="1">
-        <v>822.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="1">
-        <v>100.0</v>
+        <v>155.0</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>1224.0</v>
+        <v>1202.0</v>
       </c>
       <c r="D24" t="n" s="1">
-        <v>22.0</v>
+        <v>102.0</v>
       </c>
       <c r="E24" t="n" s="1">
-        <v>1202.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="n" s="1">
-        <v>113.36</v>
+        <v>172.26999999999998</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>1362.0</v>
+        <v>1298.0</v>
       </c>
       <c r="D25" t="n" s="1">
-        <v>13.0</v>
+        <v>75.0</v>
       </c>
       <c r="E25" t="n" s="1">
-        <v>1349.0</v>
+        <v>1223.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="1">
-        <v>209.18</v>
+        <v>230.3</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>3839.0</v>
+        <v>4046.0</v>
       </c>
       <c r="D26" t="n" s="1">
-        <v>41.0</v>
+        <v>213.0</v>
       </c>
       <c r="E26" t="n" s="1">
-        <v>3798.0</v>
+        <v>3833.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9">
         <f>SUM(B16:B26)</f>
@@ -749,30 +740,30 @@
         <v>5</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="n" s="1">
-        <v>359.17</v>
+        <v>423.19</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>16713.0</v>
+        <v>17229.0</v>
       </c>
       <c r="D30" t="n" s="1">
-        <v>175.0</v>
+        <v>974.0</v>
       </c>
       <c r="E30" t="n" s="1">
-        <v>16538.0</v>
+        <v>16255.0</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n" s="1">
         <v>0.0</v>

--- a/output/main/TabuSearch_Stats.xlsx
+++ b/output/main/TabuSearch_Stats.xlsx
@@ -12,44 +12,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Schedule</t>
   </si>
   <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Attempted Moves</t>
+  </si>
+  <si>
+    <t>Accepted Moves</t>
+  </si>
+  <si>
+    <t>Tabu Moves</t>
+  </si>
+  <si>
+    <t>Optimization Time</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>1 sec</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>2 sec</t>
+  </si>
+  <si>
+    <t>Sums:</t>
+  </si>
+  <si>
     <t>Quality</t>
   </si>
   <si>
-    <t>Attempted Moves</t>
-  </si>
-  <si>
-    <t>Accepted Moves</t>
-  </si>
-  <si>
-    <t>Tabu Moves</t>
-  </si>
-  <si>
-    <t>Optimization Time</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>3 sec</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>5 sec</t>
-  </si>
-  <si>
-    <t>Sums:</t>
-  </si>
-  <si>
     <t>Division U7 (tier: 3)</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
     <t>Entire League</t>
   </si>
   <si>
-    <t>0 min, 30 sec</t>
+    <t>0 min, 11 sec</t>
   </si>
 </sst>
 </file>
@@ -240,16 +243,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="1">
-        <v>514.45</v>
+        <v>509.45</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>325.0</v>
+        <v>276.0</v>
       </c>
       <c r="D2" t="n" s="1">
         <v>10.0</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>315.0</v>
+        <v>266.0</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>7</v>
@@ -260,16 +263,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="n" s="1">
-        <v>728.98</v>
+        <v>709.27</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>449.0</v>
+        <v>173.0</v>
       </c>
       <c r="D3" t="n" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>449.0</v>
+        <v>171.0</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>7</v>
@@ -280,16 +283,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>884.87</v>
+        <v>851.87</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>602.0</v>
+        <v>301.0</v>
       </c>
       <c r="D4" t="n" s="1">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>582.0</v>
+        <v>283.0</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>10</v>
@@ -300,16 +303,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <f>SUM(B2:B12)</f>
+        <f>SUM(B2:B4)</f>
       </c>
       <c r="C13" s="5">
-        <f>SUM(C2:C12)</f>
+        <f>SUM(C2:C4)</f>
       </c>
       <c r="D13" s="6">
-        <f>SUM(D2:D12)</f>
+        <f>SUM(D2:D4)</f>
       </c>
       <c r="E13" s="7">
-        <f>SUM(E2:E12)</f>
+        <f>SUM(E2:E4)</f>
       </c>
     </row>
     <row r="15">
@@ -317,7 +320,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>2</v>
@@ -331,53 +334,53 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n" s="1">
-        <v>326.45</v>
+        <v>307.45</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>3492.0</v>
+        <v>1692.0</v>
       </c>
       <c r="D16" t="n" s="1">
         <v>44.0</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>3448.0</v>
+        <v>1648.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n" s="1">
-        <v>475.98</v>
+        <v>454.57</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>2137.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>2098.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n" s="1">
-        <v>758.87</v>
+        <v>741.87</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>3753.0</v>
+        <v>1812.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>3692.0</v>
+        <v>1754.0</v>
       </c>
     </row>
     <row r="27">
@@ -385,16 +388,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="9">
-        <f>SUM(B16:B26)</f>
+        <f>SUM(B16:B18)</f>
       </c>
       <c r="C27" s="10">
-        <f>SUM(C16:C26)</f>
+        <f>SUM(C16:C18)</f>
       </c>
       <c r="D27" s="11">
-        <f>SUM(D16:D26)</f>
+        <f>SUM(D16:D18)</f>
       </c>
       <c r="E27" s="12">
-        <f>SUM(E16:E26)</f>
+        <f>SUM(E16:E18)</f>
       </c>
     </row>
     <row r="29">
@@ -402,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>2</v>
@@ -417,30 +420,30 @@
         <v>5</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n" s="1">
-        <v>1443.4</v>
+        <v>1283.02</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>18469.0</v>
+        <v>9168.0</v>
       </c>
       <c r="D30" t="n" s="1">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="E30" t="n" s="1">
-        <v>18247.0</v>
+        <v>8945.0</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n" s="1">
         <v>0.0</v>

--- a/output/main/TabuSearch_Stats.xlsx
+++ b/output/main/TabuSearch_Stats.xlsx
@@ -71,7 +71,7 @@
     <t>Entire League</t>
   </si>
   <si>
-    <t>0 min, 11 sec</t>
+    <t>0 min, 10 sec</t>
   </si>
 </sst>
 </file>
@@ -243,16 +243,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="1">
-        <v>509.45</v>
+        <v>526.45</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>276.0</v>
+        <v>195.0</v>
       </c>
       <c r="D2" t="n" s="1">
         <v>10.0</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>266.0</v>
+        <v>185.0</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>7</v>
@@ -263,16 +263,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="n" s="1">
-        <v>709.27</v>
+        <v>725.27</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>173.0</v>
+        <v>204.0</v>
       </c>
       <c r="D3" t="n" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>171.0</v>
+        <v>202.0</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>7</v>
@@ -283,16 +283,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>851.87</v>
+        <v>834.11</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>301.0</v>
+        <v>344.0</v>
       </c>
       <c r="D4" t="n" s="1">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>283.0</v>
+        <v>330.0</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>10</v>
@@ -337,16 +337,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="1">
-        <v>307.45</v>
+        <v>324.75</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>1692.0</v>
+        <v>1723.0</v>
       </c>
       <c r="D16" t="n" s="1">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>1648.0</v>
+        <v>1688.0</v>
       </c>
     </row>
     <row r="17">
@@ -354,16 +354,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="1">
-        <v>454.57</v>
+        <v>425.27</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>1035.0</v>
+        <v>990.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>995.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="18">
@@ -371,16 +371,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="1">
-        <v>741.87</v>
+        <v>736.11</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>1812.0</v>
+        <v>1820.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>1754.0</v>
+        <v>1760.0</v>
       </c>
     </row>
     <row r="27">
@@ -431,16 +431,16 @@
         <v>18</v>
       </c>
       <c r="B30" t="n" s="1">
-        <v>1283.02</v>
+        <v>1304.87</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>9168.0</v>
+        <v>9112.0</v>
       </c>
       <c r="D30" t="n" s="1">
-        <v>223.0</v>
+        <v>233.0</v>
       </c>
       <c r="E30" t="n" s="1">
-        <v>8945.0</v>
+        <v>8879.0</v>
       </c>
       <c r="F30" t="s" s="1">
         <v>19</v>
